--- a/MMXReport/ReportTemplate/Template_Maintenance.xlsx
+++ b/MMXReport/ReportTemplate/Template_Maintenance.xlsx
@@ -1237,8 +1237,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AH59"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A10" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26:I39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
@@ -1661,17 +1661,6 @@
       <c r="N22" s="4"/>
     </row>
     <row r="23" spans="1:19" s="9" customFormat="1" ht="18" customHeight="1">
-      <c r="A23" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="B23" s="27"/>
-      <c r="C23" s="24"/>
-      <c r="D23" s="27"/>
-      <c r="E23" s="27"/>
-      <c r="F23" s="27"/>
-      <c r="G23" s="27"/>
-      <c r="H23" s="24"/>
-      <c r="I23" s="25"/>
       <c r="J23" s="4"/>
       <c r="K23" s="4"/>
       <c r="L23" s="4"/>
@@ -1679,19 +1668,6 @@
       <c r="N23" s="4"/>
     </row>
     <row r="24" spans="1:19" s="9" customFormat="1" ht="18" customHeight="1">
-      <c r="A24" s="33" t="s">
-        <v>16</v>
-      </c>
-      <c r="B24" s="33"/>
-      <c r="C24" s="33"/>
-      <c r="D24" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="E24" s="27"/>
-      <c r="F24" s="27"/>
-      <c r="G24" s="27"/>
-      <c r="H24" s="24"/>
-      <c r="I24" s="25"/>
       <c r="J24" s="4"/>
       <c r="K24" s="4"/>
       <c r="L24" s="4"/>
@@ -1699,15 +1675,6 @@
       <c r="N24" s="4"/>
     </row>
     <row r="25" spans="1:19" s="9" customFormat="1" ht="18" customHeight="1">
-      <c r="A25" s="33"/>
-      <c r="B25" s="33"/>
-      <c r="C25" s="33"/>
-      <c r="D25" s="27"/>
-      <c r="E25" s="27"/>
-      <c r="F25" s="27"/>
-      <c r="G25" s="27"/>
-      <c r="H25" s="24"/>
-      <c r="I25" s="25"/>
       <c r="J25" s="4"/>
       <c r="K25" s="4"/>
       <c r="L25" s="4"/>
@@ -1715,9 +1682,11 @@
       <c r="N25" s="4"/>
     </row>
     <row r="26" spans="1:19" s="9" customFormat="1" ht="18" customHeight="1">
-      <c r="A26" s="33"/>
-      <c r="B26" s="33"/>
-      <c r="C26" s="33"/>
+      <c r="A26" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="B26" s="27"/>
+      <c r="C26" s="24"/>
       <c r="D26" s="27"/>
       <c r="E26" s="27"/>
       <c r="F26" s="27"/>
@@ -1731,10 +1700,14 @@
       <c r="N26" s="4"/>
     </row>
     <row r="27" spans="1:19" s="9" customFormat="1" ht="18" customHeight="1">
-      <c r="A27" s="33"/>
+      <c r="A27" s="33" t="s">
+        <v>16</v>
+      </c>
       <c r="B27" s="33"/>
       <c r="C27" s="33"/>
-      <c r="D27" s="27"/>
+      <c r="D27" s="32" t="s">
+        <v>17</v>
+      </c>
       <c r="E27" s="27"/>
       <c r="F27" s="27"/>
       <c r="G27" s="27"/>
@@ -1795,11 +1768,9 @@
       <c r="N30" s="4"/>
     </row>
     <row r="31" spans="1:19" s="9" customFormat="1" ht="18" customHeight="1">
-      <c r="A31" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="B31" s="27"/>
-      <c r="C31" s="24"/>
+      <c r="A31" s="33"/>
+      <c r="B31" s="33"/>
+      <c r="C31" s="33"/>
       <c r="D31" s="27"/>
       <c r="E31" s="27"/>
       <c r="F31" s="27"/>
@@ -1813,14 +1784,10 @@
       <c r="N31" s="4"/>
     </row>
     <row r="32" spans="1:19" s="9" customFormat="1" ht="18" customHeight="1">
-      <c r="A32" s="33" t="s">
-        <v>19</v>
-      </c>
+      <c r="A32" s="33"/>
       <c r="B32" s="33"/>
       <c r="C32" s="33"/>
-      <c r="D32" s="32" t="s">
-        <v>18</v>
-      </c>
+      <c r="D32" s="27"/>
       <c r="E32" s="27"/>
       <c r="F32" s="27"/>
       <c r="G32" s="27"/>
@@ -1844,9 +1811,11 @@
       <c r="I33" s="25"/>
     </row>
     <row r="34" spans="1:34" ht="14.25">
-      <c r="A34" s="33"/>
-      <c r="B34" s="33"/>
-      <c r="C34" s="33"/>
+      <c r="A34" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="B34" s="27"/>
+      <c r="C34" s="24"/>
       <c r="D34" s="27"/>
       <c r="E34" s="27"/>
       <c r="F34" s="27"/>
@@ -1855,10 +1824,14 @@
       <c r="I34" s="25"/>
     </row>
     <row r="35" spans="1:34" ht="14.25">
-      <c r="A35" s="33"/>
+      <c r="A35" s="33" t="s">
+        <v>19</v>
+      </c>
       <c r="B35" s="33"/>
       <c r="C35" s="33"/>
-      <c r="D35" s="27"/>
+      <c r="D35" s="32" t="s">
+        <v>18</v>
+      </c>
       <c r="E35" s="27"/>
       <c r="F35" s="27"/>
       <c r="G35" s="27"/>
@@ -1887,27 +1860,27 @@
       <c r="H37" s="24"/>
       <c r="I37" s="25"/>
     </row>
-    <row r="38" spans="1:34">
+    <row r="38" spans="1:34" ht="14.25">
       <c r="A38" s="33"/>
       <c r="B38" s="33"/>
       <c r="C38" s="33"/>
-      <c r="D38" s="9"/>
-      <c r="E38" s="9"/>
-      <c r="F38" s="5"/>
-      <c r="G38" s="5"/>
-      <c r="H38" s="5"/>
-      <c r="I38" s="5"/>
-    </row>
-    <row r="39" spans="1:34">
-      <c r="A39" s="4"/>
-      <c r="B39" s="4"/>
-      <c r="C39" s="5"/>
-      <c r="D39" s="5"/>
-      <c r="E39" s="5"/>
-      <c r="F39" s="5"/>
-      <c r="G39" s="5"/>
-      <c r="H39" s="5"/>
-      <c r="I39" s="5"/>
+      <c r="D38" s="27"/>
+      <c r="E38" s="27"/>
+      <c r="F38" s="27"/>
+      <c r="G38" s="27"/>
+      <c r="H38" s="24"/>
+      <c r="I38" s="25"/>
+    </row>
+    <row r="39" spans="1:34" ht="14.25">
+      <c r="A39" s="33"/>
+      <c r="B39" s="33"/>
+      <c r="C39" s="33"/>
+      <c r="D39" s="27"/>
+      <c r="E39" s="27"/>
+      <c r="F39" s="27"/>
+      <c r="G39" s="27"/>
+      <c r="H39" s="24"/>
+      <c r="I39" s="25"/>
     </row>
     <row r="40" spans="1:34">
       <c r="A40" s="4"/>
